--- a/Program code/Datos/martrat2004_AgeSST.xlsx
+++ b/Program code/Datos/martrat2004_AgeSST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UGR_drive\Proyectos\Computer geoscience\ImAn Project\ImAn-Project\Program code\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BAC4C5-9313-41DA-A48E-B7DC2DE65758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B976C51-D569-4953-BA2E-AA7765D332D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,8213 +669,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Martrat2004!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SST [°C]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Martrat2004!$A$2:$A$656</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="655"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.01</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.1399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.2300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.29</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.37</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.42</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.47</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.72</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.7699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.83</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.87</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.93</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.12</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.42</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.69</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.91</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.97</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.02</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.12</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.14</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.18</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.22</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.34</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.47</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.63</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.73</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.83</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.88</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.03</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>7.37</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.41</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>7.44</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>7.48</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7.54</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7.63</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7.79</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>7.84</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7.89</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7.94</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8.09</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8.14</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>8.18</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>8.27</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8.32</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8.3699999999999992</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8.41</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8.51</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>8.56</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8.61</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>8.66</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>8.7100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8.76</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>8.86</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>8.94</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>9.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>9.17</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>9.23</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>9.34</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>9.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9.43</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>9.48</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.52</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9.57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>9.61</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>9.7100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>9.76</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>9.86</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>9.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>9.99</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>10.039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>10.18</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>10.210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>10.31</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>10.36</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>10.43</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>10.49</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>10.54</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>10.56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>10.66</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>10.72</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>10.81</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10.86</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>10.96</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>11.01</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>11.06</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>11.13</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>11.16</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>11.24</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>11.41</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>11.62</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>11.71</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>12.02</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>12.12</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>12.19</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>12.49</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12.78</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>12.88</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>13.16</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>13.26</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>13.41</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>13.51</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>13.59</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>13.69</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13.77</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>13.87</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>13.97</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>14.06</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>14.16</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>14.36</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>14.42</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>14.51</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>14.55</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>14.72</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>14.82</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>15.11</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>15.19</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15.28</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>15.38</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>15.47</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>15.57</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>15.68</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>15.76</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>15.85</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>15.94</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>16.13</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>16.23</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>16.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>16.41</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>16.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>16.79</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>16.87</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>16.98</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>17.16</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>17.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>17.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>17.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>17.61</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>17.739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>17.82</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>17.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>18.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>18.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>18.29</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>18.39</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>18.559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>18.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>18.760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>18.86</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>18.95</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>19.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>19.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>19.43</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>19.63</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>19.88</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>19.98</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>20.09</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>20.16</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>20.27</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>20.37</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>20.43</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>20.53</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>20.56</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>20.64</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>20.83</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>20.92</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>21.02</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>21.11</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>21.21</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>21.68</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>21.77</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>21.86</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>21.96</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>22.05</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>22.12</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>22.14</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>22.24</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>22.34</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>22.43</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>22.46</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>22.62</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>22.67</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>22.72</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>22.77</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>22.81</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>22.85</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>23.01</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>23.11</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>23.15</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>23.28</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>23.35</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>23.38</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>23.45</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>23.48</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>23.55</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>23.58</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>23.65</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>23.67</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>23.74</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>23.77</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>23.83</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>23.86</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>23.93</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>23.95</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>24.02</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>24.05</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>24.12</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>24.19</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>24.24</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>24.3</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>24.33</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>24.44</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>24.53</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>24.62</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>24.68</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>24.72</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>24.82</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>24.88</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>24.91</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>24.95</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>24.99</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>25.04</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>25.1</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>25.13</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>25.27</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>25.32</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>25.38</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>25.49</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>25.54</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>25.59</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>25.62</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>25.68</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>25.74</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>25.77</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>25.88</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>25.94</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>25.96</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>26.02</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>26.12</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>26.16</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>26.19</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>26.22</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>26.28</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>26.34</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>26.38</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>26.44</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>26.48</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>26.54</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>26.58</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>26.64</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>26.66</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>26.73</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>26.76</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>26.84</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>26.88</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>26.93</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>26.98</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>27.03</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>27.08</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>27.11</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>27.15</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>27.23</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>27.31</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>27.37</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>27.44</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>27.48</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>27.55</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>27.59</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>27.65</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>27.69</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>27.75</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>27.78</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>27.84</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>27.88</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>27.94</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>27.97</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>28.03</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>28.13</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>28.19</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>28.23</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>28.26</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>28.33</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>28.36</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>28.42</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>28.45</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>28.51</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>28.55</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>28.61</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>28.64</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>28.71</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>28.75</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>28.79</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>28.84</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>28.9</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>28.93</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>28.98</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>29.03</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>29.08</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>29.14</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>29.18</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>29.22</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>29.27</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>29.31</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>29.36</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>29.41</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>29.46</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>29.52</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>29.55</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>29.65</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>29.74</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>29.79</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>29.84</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>29.89</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>29.94</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>29.98</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>30.08</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>30.27</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>30.34</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>30.37</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>30.42</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>30.46</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>30.51</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>30.56</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>30.61</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>30.65</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>30.75</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>30.8</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>30.84</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>30.89</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>30.94</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>30.99</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>31.05</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>31.13</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>31.18</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>31.23</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>31.28</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>31.32</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>31.37</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>31.42</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>31.47</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>31.51</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>31.56</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>31.61</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>31.66</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>31.71</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>31.75</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>31.85</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>31.95</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>31.99</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>32.04</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>32.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>32.19</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>32.29</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>32.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>32.39</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>32.43</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>32.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>32.6</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>32.64</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>32.69</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>32.76</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>32.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>32.86</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>32.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>32.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>32.979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>33.03</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>33.08</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>33.119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>33.17</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>33.24</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>33.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>33.33</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>33.36</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>33.46</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>33.51</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>33.56</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>33.65</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>33.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>33.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>33.89</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>33.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>34.04</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>34.08</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>34.14</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>34.18</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>34.229999999999997</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>34.28</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>34.33</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>34.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>34.42</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>34.479999999999997</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>34.520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>34.57</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>34.61</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>34.67</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>34.72</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>34.76</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>34.81</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>34.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>34.92</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>34.96</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>35.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>35.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>35.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>35.24</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>35.29</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>35.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>35.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>35.43</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>35.479999999999997</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>35.53</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>35.57</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>35.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>35.67</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>35.72</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>35.770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>35.82</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>35.86</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>35.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>35.96</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>36.01</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>36.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>36.15</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>36.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>36.25</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>36.31</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>36.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>36.39</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>36.44</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>36.49</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>36.53</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>36.58</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>36.630000000000003</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>36.68</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>36.729999999999997</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>36.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>36.869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>36.92</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>36.97</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>37.01</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>37.06</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>37.11</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>37.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>37.21</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>37.25</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>37.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>37.4</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>37.450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>37.49</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>37.54</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>37.590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>37.64</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>37.69</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>37.74</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>37.78</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>37.83</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>37.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>37.93</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>37.979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>38.020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>38.07</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>38.119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>38.17</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>38.22</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>38.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>38.31</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>38.36</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>38.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>38.46</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>38.58</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>38.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>38.65</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>38.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>38.74</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>38.79</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>38.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>38.89</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>38.94</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>38.979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>39.03</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>39.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>39.130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>39.18</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>39.22</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>39.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>39.32</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>39.369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>39.42</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>39.46</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>39.51</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>39.56</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>39.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>39.659999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Martrat2004!$C$2:$C$656</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="655"/>
-                <c:pt idx="0">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>21.1</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>23.1</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>11.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-95E6-4A5D-91E8-C1E86D734D37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Martrat2004!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SST [°C]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Martrat2004!$A$2:$A$656</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="655"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.01</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.1399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.2300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.29</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.33</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.37</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.42</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.47</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.72</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.7699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.83</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.87</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.93</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.12</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.34</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.42</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.69</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.91</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.97</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.02</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.12</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.14</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.18</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.22</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.34</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.41</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.47</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.63</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.73</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.83</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.88</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.03</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>7.37</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.41</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>7.44</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>7.48</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7.54</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7.63</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7.79</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>7.84</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7.89</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7.94</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8.09</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8.14</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>8.18</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>8.27</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8.32</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8.3699999999999992</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8.41</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8.51</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>8.56</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8.61</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>8.66</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>8.7100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8.76</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>8.86</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>8.94</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>9.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>9.17</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>9.23</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>9.34</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>9.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9.43</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>9.48</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.52</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9.57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>9.61</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>9.7100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>9.76</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>9.81</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>9.86</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>9.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>9.99</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>10.039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>10.18</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>10.210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>10.31</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>10.36</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>10.43</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>10.49</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>10.54</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>10.56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>10.66</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>10.72</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>10.81</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10.86</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>10.96</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>11.01</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>11.06</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>11.13</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>11.16</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>11.24</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>11.41</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>11.62</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>11.71</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>12.02</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>12.12</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>12.19</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>12.49</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12.78</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>12.88</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>13.16</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>13.26</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>13.41</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>13.51</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>13.59</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>13.69</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13.77</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>13.87</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>13.97</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>14.06</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>14.16</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>14.36</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>14.42</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>14.51</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>14.55</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>14.72</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>14.82</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>15.11</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>15.19</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15.28</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>15.38</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>15.47</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>15.57</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>15.68</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>15.76</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>15.85</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>15.94</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>16.13</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>16.23</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>16.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>16.41</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>16.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>16.79</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>16.87</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>16.98</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>17.16</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>17.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>17.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>17.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>17.61</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>17.739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>17.82</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>17.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>18.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>18.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>18.29</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>18.39</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>18.559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>18.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>18.760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>18.86</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>18.95</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>19.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>19.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>19.43</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>19.63</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>19.88</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>19.98</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>20.09</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>20.16</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>20.27</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>20.37</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>20.43</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>20.53</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>20.56</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>20.64</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>20.73</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>20.83</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>20.92</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>21.02</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>21.11</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>21.21</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>21.29</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>21.68</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>21.77</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>21.86</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>21.96</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>22.05</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>22.12</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>22.14</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>22.24</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>22.34</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>22.43</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>22.46</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>22.62</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>22.67</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>22.72</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>22.77</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>22.81</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>22.85</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>23.01</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>23.11</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>23.15</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>23.28</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>23.35</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>23.38</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>23.45</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>23.48</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>23.55</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>23.58</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>23.65</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>23.67</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>23.74</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>23.77</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>23.83</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>23.86</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>23.93</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>23.95</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>24.02</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>24.05</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>24.12</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>24.15</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>24.19</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>24.24</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>24.3</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>24.33</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>24.44</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>24.53</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>24.62</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>24.68</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>24.72</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>24.82</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>24.88</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>24.91</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>24.95</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>24.99</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>25.04</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>25.1</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>25.13</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>25.27</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>25.32</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>25.38</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>25.49</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>25.54</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>25.59</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>25.62</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>25.68</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>25.74</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>25.77</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>25.88</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>25.94</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>25.96</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>26.02</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>26.12</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>26.16</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>26.19</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>26.22</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>26.28</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>26.34</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>26.38</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>26.44</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>26.48</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>26.54</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>26.58</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>26.64</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>26.66</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>26.73</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>26.76</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>26.84</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>26.88</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>26.93</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>26.98</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>27.03</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>27.08</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>27.11</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>27.15</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>27.23</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>27.31</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>27.37</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>27.44</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>27.48</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>27.55</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>27.59</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>27.65</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>27.69</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>27.75</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>27.78</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>27.84</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>27.88</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>27.94</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>27.97</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>28.03</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>28.13</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>28.19</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>28.23</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>28.26</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>28.33</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>28.36</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>28.42</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>28.45</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>28.51</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>28.55</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>28.61</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>28.64</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>28.71</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>28.75</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>28.79</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>28.84</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>28.9</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>28.93</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>28.98</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>29.03</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>29.08</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>29.14</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>29.18</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>29.22</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>29.27</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>29.31</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>29.36</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>29.41</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>29.46</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>29.52</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>29.55</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>29.65</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>29.74</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>29.79</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>29.84</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>29.89</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>29.94</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>29.98</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>30.08</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>30.27</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>30.34</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>30.37</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>30.42</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>30.46</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>30.51</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>30.56</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>30.61</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>30.65</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>30.75</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>30.8</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>30.84</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>30.89</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>30.94</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>30.99</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>31.05</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>31.13</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>31.18</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>31.23</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>31.28</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>31.32</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>31.37</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>31.42</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>31.47</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>31.51</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>31.56</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>31.61</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>31.66</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>31.71</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>31.75</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>31.85</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>31.95</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>31.99</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>32.04</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>32.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>32.19</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>32.29</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>32.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>32.39</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>32.43</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>32.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>32.6</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>32.64</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>32.69</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>32.76</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>32.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>32.86</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>32.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>32.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>32.979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>33.03</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>33.08</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>33.119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>33.17</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>33.24</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>33.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>33.33</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>33.36</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>33.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>33.46</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>33.51</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>33.56</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>33.65</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>33.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>33.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>33.89</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>33.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>34.04</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>34.08</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>34.14</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>34.18</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>34.229999999999997</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>34.28</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>34.33</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>34.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>34.42</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>34.479999999999997</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>34.520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>34.57</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>34.61</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>34.67</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>34.72</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>34.76</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>34.81</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>34.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>34.92</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>34.96</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>35.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>35.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>35.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>35.24</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>35.29</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>35.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>35.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>35.43</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>35.479999999999997</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>35.53</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>35.57</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>35.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>35.67</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>35.72</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>35.770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>35.82</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>35.86</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>35.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>35.96</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>36.01</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>36.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>36.15</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>36.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>36.25</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>36.31</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>36.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>36.39</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>36.44</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>36.49</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>36.53</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>36.58</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>36.630000000000003</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>36.68</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>36.729999999999997</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>36.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>36.869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>36.92</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>36.97</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>37.01</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>37.06</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>37.11</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>37.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>37.21</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>37.25</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>37.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>37.4</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>37.450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>37.49</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>37.54</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>37.590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>37.64</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>37.69</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>37.74</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>37.78</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>37.83</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>37.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>37.93</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>37.979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>38.020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>38.07</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>38.119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>38.17</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>38.22</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>38.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>38.31</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>38.36</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>38.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>38.46</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>38.58</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>38.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>38.65</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>38.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>38.74</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>38.79</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>38.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>38.89</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>38.94</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>38.979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>39.03</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>39.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>39.130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>39.18</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>39.22</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>39.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>39.32</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>39.369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>39.42</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>39.46</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>39.51</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>39.56</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>39.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>39.659999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Martrat2004!$C$2:$C$656</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="655"/>
-                <c:pt idx="0">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>21.1</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>23.1</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>16.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>19.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>19.7</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>20.9</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>20.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>19.3</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>11.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-95E6-4A5D-91E8-C1E86D734D37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1161319392"/>
-        <c:axId val="1157588704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1161319392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.6500000000000001"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1157588704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1157588704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="15"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1161319392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537481</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>84364</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>537481</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D9D338-8BD5-45CD-8890-0FA621384151}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -9176,7 +969,7 @@
   <dimension ref="A1:J656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18451,6 +10244,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>